--- a/Data Test/join_class.xlsx
+++ b/Data Test/join_class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FFB75-0144-4112-B964-188C692D8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4386FD-8BFE-4ECC-AE58-76E34AECBE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="3510" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>code_class</t>
   </si>
   <si>
-    <t>1abcd23</t>
-  </si>
-  <si>
-    <t>edfe061679</t>
+    <t>abcdefh12</t>
+  </si>
+  <si>
+    <t>953eefc048</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Test/join_class.xlsx
+++ b/Data Test/join_class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4386FD-8BFE-4ECC-AE58-76E34AECBE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC265B80-89D4-4F44-8871-B6B683E725CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>abcdefh12</t>
   </si>
   <si>
-    <t>953eefc048</t>
+    <t>5360e6355a</t>
   </si>
 </sst>
 </file>
@@ -127,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +449,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +499,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Data Test/join_class.xlsx
+++ b/Data Test/join_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC265B80-89D4-4F44-8871-B6B683E725CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABEFD3-170A-416C-97BA-DEFB251348D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="2100" yWindow="1860" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
